--- a/개발문서/암호화폐 자동매매 개발 R&R.xlsx
+++ b/개발문서/암호화폐 자동매매 개발 R&R.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS X571GT\Desktop\연세대학교 학부\Yonsei_WebService_Project\개발문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yonsei2021\개발문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A98EF9-4CE1-4AAD-9976-A77E1F1AB40F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="12090"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>목차</t>
   </si>
@@ -184,47 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프론트엔드 (UI)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -260,8 +220,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,13 +321,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -387,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -622,12 +575,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +656,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -712,18 +704,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,8 +713,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -951,14 +946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:G1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -974,13 +969,13 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1002,7 +997,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1010,24 +1005,22 @@
       <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="17">
         <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="30" t="s">
-        <v>19</v>
-      </c>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
@@ -1036,65 +1029,67 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="34"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34"/>
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33"/>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="33"/>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="35" t="s">
+    </row>
+    <row r="13" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="33"/>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="34"/>
+      <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="33"/>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="31"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7">
@@ -1102,38 +1097,38 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="2:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="31"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="31"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="2:6" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="25"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
@@ -1141,12 +1136,12 @@
       <c r="E20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="26"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
@@ -1157,13 +1152,13 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
+      <c r="B22" s="27"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="24"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
@@ -1172,14 +1167,14 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="25"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1183,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
@@ -1197,7 +1192,7 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="7" t="s">
         <v>17</v>
       </c>
@@ -1206,14 +1201,14 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="7"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="2:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
@@ -1223,18 +1218,18 @@
     <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2210,7 +2205,7 @@
     <row r="1006" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B6:B8"/>
@@ -2220,10 +2215,12 @@
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="B15:B19"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="D9:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
